--- a/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/equipAttr.xlsx
+++ b/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/equipAttr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1055,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1290,19 +1290,16 @@
         <v>70001</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
@@ -1313,16 +1310,16 @@
         <v>70001</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
@@ -1336,16 +1333,16 @@
         <v>70001</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -1362,13 +1359,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
@@ -1382,10 +1382,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1402,10 +1402,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1442,10 +1442,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1502,15 +1502,35 @@
         <v>6</v>
       </c>
       <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>70001</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
         <v>8</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
